--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -287,63 +287,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,14 +360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,92 +425,86 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="K4" s="0"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="K5" s="0"/>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,116 +560,107 @@
       </c>
     </row>
     <row r="11" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
+      <c r="A11" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="K12" s="0"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -745,179 +730,161 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>1</v>
+      <c r="A19" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="15" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="E20" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="F20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="15" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="E21" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="F21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="15" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="15" t="s">
         <v>39</v>
       </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="15" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="E22" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="F22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>20</v>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>46</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -282,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,44 +300,40 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -367,7 +360,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,124 +380,120 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="K2" s="0"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="K3" s="0"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="0"/>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="0"/>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="K6" s="0"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,370 +511,360 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="0"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="0"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="K13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
+      <c r="A15" s="11"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="3"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="I19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>35</v>
+      <c r="A20" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="15" t="s">
-        <v>21</v>
+      <c r="H20" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="15" t="s">
-        <v>41</v>
+      <c r="H22" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>42</v>
+      <c r="F23" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="15" t="s">
-        <v>44</v>
+      <c r="H23" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>46</v>
+      <c r="H24" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">Generated code prefix</t>
   </si>
   <si>
+    <t xml:space="preserve">Unique Subcodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEPARTMENT</t>
   </si>
   <si>
@@ -49,6 +55,12 @@
     <t xml:space="preserve">FALSE</t>
   </si>
   <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-11 17:23:44</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandatory</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -167,9 +176,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -279,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,6 +310,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,7 +322,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,7 +378,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,105 +413,115 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="0"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
+      <c r="A3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="K6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,148 +554,158 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="0"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
+      <c r="A10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="0"/>
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="7"/>
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -682,189 +720,197 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
+      <c r="A18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="C19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="D19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>16</v>
+      <c r="I19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>21</v>
+      <c r="A20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="14" t="s">
-        <v>20</v>
+      <c r="H20" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>37</v>
+      <c r="A21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="14" t="s">
-        <v>38</v>
+      <c r="H21" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>41</v>
+      <c r="A22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="14" t="s">
-        <v>40</v>
+      <c r="H22" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>41</v>
+      <c r="A23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="14" t="s">
-        <v>43</v>
+      <c r="H23" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>45</v>
+      <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Dynamic script</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME</t>
+    <t xml:space="preserve">$NAME</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">date_range_validation.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$NAME</t>
   </si>
   <si>
     <t xml:space="preserve">OPEN</t>
@@ -322,7 +319,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,7 +375,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17:G18"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -788,7 +785,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>11</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>11</v>
@@ -826,21 +823,21 @@
         <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>11</v>
@@ -852,21 +849,21 @@
         <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>11</v>
@@ -878,21 +875,21 @@
         <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>10</v>
@@ -904,13 +901,13 @@
         <v>22</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivalued</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -286,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,7 +330,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,17 +379,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -438,7 +449,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -469,11 +480,13 @@
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -481,46 +494,52 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
+      <c r="D5" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="K6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K7" s="12"/>
+    </row>
     <row r="8" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>0</v>
@@ -563,10 +582,10 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -579,7 +598,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,11 +629,13 @@
       <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
@@ -622,23 +643,25 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
@@ -646,63 +669,68 @@
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>22</v>
+      <c r="D14" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K14" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -723,22 +751,22 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>34</v>
+      <c r="A18" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="8" t="s">
@@ -751,163 +779,181 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="K19" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="F20" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="16" t="s">
-        <v>23</v>
+      <c r="H20" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
+      <c r="K20" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="B21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="F21" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="16" t="s">
-        <v>40</v>
+      <c r="H21" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
+      <c r="K21" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="B22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>43</v>
       </c>
+      <c r="F22" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="16" t="s">
-        <v>42</v>
+      <c r="H22" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
+      <c r="K22" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="16" t="s">
-        <v>45</v>
+      <c r="H23" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
+      <c r="K23" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>22</v>
+      <c r="D24" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>47</v>
+      <c r="K24" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
